--- a/MPI_Lab3/Report_Lab3.xlsx
+++ b/MPI_Lab3/Report_Lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taya\Documents\University\DistributedComputing\MPI_Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7043CFFC-9B08-473A-8077-33A68376D9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10219B8D-01A5-4B16-A1B0-02FED3475725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0854C508-2ECD-416F-AD9B-45BEFA2E268A}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
